--- a/data/MilEditorials10Aug.xlsx
+++ b/data/MilEditorials10Aug.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petererickson/Documents/Wisconsin Academics/Semester 2/PS904 - American Politics/ResearchPaper/904 Final Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0924CD04-CCD9-054A-8B97-BAEDA3AB5865}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F0FA1-C11A-3741-8C65-F71DA7A7DA76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{0B10A8DD-4B03-364B-B6B4-561096E38319}"/>
   </bookViews>
@@ -2698,15 +2698,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398DC456-8F02-9C4D-BCC7-A5EE43EC04A5}">
   <dimension ref="A1:AK350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A336" sqref="A336:XFD445"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
     <col min="3" max="3" width="32.5" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" customWidth="1"/>
@@ -2724,6 +2724,18 @@
     <col min="18" max="18" width="20.83203125" customWidth="1"/>
     <col min="19" max="19" width="14.83203125" customWidth="1"/>
     <col min="20" max="20" width="16.6640625" customWidth="1"/>
+    <col min="24" max="24" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.6640625" customWidth="1"/>
+    <col min="33" max="33" width="17.5" customWidth="1"/>
+    <col min="34" max="34" width="19.83203125" customWidth="1"/>
+    <col min="35" max="35" width="19.6640625" customWidth="1"/>
+    <col min="36" max="36" width="22.33203125" customWidth="1"/>
+    <col min="37" max="37" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="27" customFormat="1" ht="34">

--- a/data/MilEditorials10Aug.xlsx
+++ b/data/MilEditorials10Aug.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petererickson/Documents/Wisconsin Academics/Semester 2/PS904 - American Politics/ResearchPaper/904 Final Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F0FA1-C11A-3741-8C65-F71DA7A7DA76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C7B88B-497A-ED40-BD5C-EB4E343AFD5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{0B10A8DD-4B03-364B-B6B4-561096E38319}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="728">
   <si>
     <t>Service</t>
   </si>
@@ -2209,6 +2209,9 @@
   </si>
   <si>
     <t xml:space="preserve">That's the tough task before the president-elect's intelligence briefers, and they its accomplishment to their professional ethic, to the nation, and to the new president. </t>
+  </si>
+  <si>
+    <t>N/A***</t>
   </si>
 </sst>
 </file>
@@ -2698,9 +2701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398DC456-8F02-9C4D-BCC7-A5EE43EC04A5}">
   <dimension ref="A1:AK350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R141" sqref="R141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15778,6 +15781,9 @@
       <c r="P138" s="3">
         <v>0</v>
       </c>
+      <c r="Q138" s="3" t="s">
+        <v>725</v>
+      </c>
       <c r="S138" s="12">
         <v>73</v>
       </c>
@@ -27831,6 +27837,9 @@
       <c r="O271" s="18"/>
       <c r="P271" s="3">
         <v>0</v>
+      </c>
+      <c r="Q271" s="3" t="s">
+        <v>727</v>
       </c>
       <c r="S271" s="12">
         <v>73</v>

--- a/data/MilEditorials10Aug.xlsx
+++ b/data/MilEditorials10Aug.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petererickson/Documents/Wisconsin Academics/Semester 2/PS904 - American Politics/ResearchPaper/904 Final Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C7B88B-497A-ED40-BD5C-EB4E343AFD5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE5ED4B-2A9A-2F47-860D-23293ECB1509}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{0B10A8DD-4B03-364B-B6B4-561096E38319}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" xr2:uid="{0B10A8DD-4B03-364B-B6B4-561096E38319}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="759">
   <si>
     <t>Service</t>
   </si>
@@ -1185,9 +1185,6 @@
     <t xml:space="preserve">The author calls on President Bush to denounce calls made by others attacking Democratic Candidate John Kerry's Vietnam War Record.  Clark previously dropped out of the race 60 days before the op-ed publication, and should no longer be commenting on these types of issues. </t>
   </si>
   <si>
-    <t>Political Leaning</t>
-  </si>
-  <si>
     <t>Endorsement of George W. Bush for President</t>
   </si>
   <si>
@@ -1203,9 +1200,6 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Topic, Political Leaning</t>
-  </si>
-  <si>
     <t>Jab at Secretary of Defense Donald Rumsfeld after 2006 midterm elections</t>
   </si>
   <si>
@@ -2212,6 +2206,107 @@
   </si>
   <si>
     <t>N/A***</t>
+  </si>
+  <si>
+    <t>Atlas, Scott and McMaster, H.R.</t>
+  </si>
+  <si>
+    <t>Relying on Foreign Drugs is Dangerous; Generics are Often Made in China. Time to diversify the Supply Chain.</t>
+  </si>
+  <si>
+    <t>Health security is critical to national security. The Covid-19 pandemic is a moment to re-evaluate U.S.
+dependence on China for pharmaceutical ingredients and to solidify the pharmaceutical supply chain in advance
+of proliferating threats.</t>
+  </si>
+  <si>
+    <t>McRaven, William and Leiter, Michael</t>
+  </si>
+  <si>
+    <t>What We Can Learn Today from the Victory of the Osama Bin Laden Raid</t>
+  </si>
+  <si>
+    <t>In a time of current national — and indeed global — crisis, it is too easy to pine for a moment when all seemed to go our way. Much more important is to remember why we had the victory we did. What worked for our country. What didn't work. And why seriousness, focus, and committment are still required to fix those things that may still be broken.</t>
+  </si>
+  <si>
+    <t>Lieberman, Joe and Keane, Jack</t>
+  </si>
+  <si>
+    <t>Dear Mr. President: Do Not Withdraw from Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. President, please do not impose an unnecessary defeat on US forces, engage in a humiliating surrender, and retreat from an important front against some of our deadliest foes. You are right that we cannot and should not remain in Afghanistan forever simply to help Afghans build their nation. That is not why we went there, and is not why we are there today. </t>
+  </si>
+  <si>
+    <t>89 Former Defense Officials</t>
+  </si>
+  <si>
+    <t>The Military Must Never Be Used to Violate Constitutional Rights</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyond being unnecessary, using our military to quell protests across the country would be unwise. This is not the mission our armed forces sign up for: They signed up to fight our nation's enemies and to secure - not infringe upon - the rights and freedoms of their fellow Americans. In addition, putting our servicemen and women in the middle of politically charged domestic unrest risks diminishing undermining the apolitical nature of the military that is so essential to our democracy. It also risks diminishing Americans' trust in our military - and thus America's security - for years to come. </t>
+  </si>
+  <si>
+    <t>Military Brass Finally Speaks Up on Trump</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But the withdrawal cannot nullify the damage already done to our democracy by a president who either doesn't understand or doesn't care about the delicate balance between protection of public order, the right of the people to peacefully protest and the danger inherent in turning the military against our own citizens. </t>
+  </si>
+  <si>
+    <t>Partisan Leaning</t>
+  </si>
+  <si>
+    <t>Topic, Partisan Leaning</t>
+  </si>
+  <si>
+    <t>West Point and its Cadets are not Campaign Props</t>
+  </si>
+  <si>
+    <t>Seidule, Ty</t>
+  </si>
+  <si>
+    <t>What to Rename the Army bases that honor Confederate Soldiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ten Army posts named during World Wars I and II honor men who fought for the Confederate States of America against the United States of America. These men committed treason to create a country dedicated to human enslavement…Our nation would not miss the names currently on these installations - and the Army has so many heroes to choose from. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Activism changed the US Military Academy in 1971, and it is changing America in 2020. When Trump comes to the academy, he will think about hs photo-op among the cadets, and how such an image might burnish his credentials as a law-an-order president who spent lavishly on the military. But we should remember how Percy Squire and his fellow cadets defeated a President. Little did Nixon realize that African American West Pointers did indeed lead a "moral rebirth of the Army." And it's America's activists who led protests this month that will change this country for the better today. </t>
+  </si>
+  <si>
+    <t>Vindman, Alexander</t>
+  </si>
+  <si>
+    <t>Coming Forward Ended My Career. I Still Believe Doing What's Right Matters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our citizens are being subjected to the same kinds of attacks tyrants launch against their critics and political opponents. Those who choose loyalty to American values and allegiance to the Constitution over devotion to a mendacious President and his enablers are punished. The president recklessly downplayed the threat of the pandemic even as it swept through our country. The economic collapse that followed highlighted the growing income disparities in our society. Millions are grieving the loss of loved ones and many more have lost their livelihoods while the president publicly bemoans his approval ratings. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trump is destroying all institutions, including the Postal Sevice. </t>
+  </si>
+  <si>
+    <t>Trump is Working to Actively Undermine the Postal Service - and Every Major U.S. Institution</t>
+  </si>
+  <si>
+    <t>Chinn, Clarence and Pittard, Dana</t>
+  </si>
+  <si>
+    <t>Confirm Tony Tata</t>
+  </si>
+  <si>
+    <t>M, M</t>
+  </si>
+  <si>
+    <t>8, 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on his superb military service in key operational and strategic planning roles, and his combat leadership…Gen Tata is the leader we need driving policy at the Pentagon and confronting security challenges the nation faces. </t>
   </si>
 </sst>
 </file>
@@ -2221,7 +2316,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2301,6 +2396,12 @@
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2329,7 +2430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2384,6 +2485,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2699,18 +2806,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398DC456-8F02-9C4D-BCC7-A5EE43EC04A5}">
-  <dimension ref="A1:AK350"/>
+  <dimension ref="A1:AK351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A338" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R141" sqref="R141"/>
+      <selection pane="topRight" activeCell="T344" sqref="T344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="58.1640625" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" customWidth="1"/>
@@ -2743,13 +2850,13 @@
   <sheetData>
     <row r="1" spans="1:37" s="27" customFormat="1" ht="34">
       <c r="A1" s="24" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>3</v>
@@ -2767,108 +2874,108 @@
         <v>2</v>
       </c>
       <c r="I1" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>715</v>
+      </c>
+      <c r="K1" s="24" t="s">
         <v>716</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>717</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>718</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>719</v>
       </c>
-      <c r="M1" s="24" t="s">
-        <v>720</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>721</v>
-      </c>
       <c r="O1" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="Q1" s="24" t="s">
         <v>381</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S1" s="25" t="s">
+        <v>695</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>696</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>713</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="X1" s="29" t="s">
         <v>697</v>
       </c>
-      <c r="T1" s="25" t="s">
-        <v>698</v>
-      </c>
-      <c r="U1" s="29" t="s">
-        <v>715</v>
-      </c>
-      <c r="V1" s="29" t="s">
+      <c r="Y1" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="Z1" s="29" t="s">
         <v>700</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="AA1" s="29" t="s">
         <v>704</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="AB1" s="29" t="s">
         <v>699</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="AC1" s="29" t="s">
         <v>703</v>
       </c>
-      <c r="Z1" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AD1" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="AE1" s="29" t="s">
         <v>706</v>
       </c>
-      <c r="AB1" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="AC1" s="29" t="s">
-        <v>705</v>
-      </c>
-      <c r="AD1" s="29" t="s">
+      <c r="AF1" s="29" t="s">
         <v>707</v>
       </c>
-      <c r="AE1" s="29" t="s">
+      <c r="AG1" s="29" t="s">
         <v>708</v>
       </c>
-      <c r="AF1" s="29" t="s">
+      <c r="AH1" s="29" t="s">
         <v>709</v>
       </c>
-      <c r="AG1" s="29" t="s">
+      <c r="AI1" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="AH1" s="29" t="s">
+      <c r="AJ1" s="29" t="s">
         <v>711</v>
       </c>
-      <c r="AI1" s="29" t="s">
+      <c r="AK1" s="29" t="s">
         <v>712</v>
-      </c>
-      <c r="AJ1" s="29" t="s">
-        <v>713</v>
-      </c>
-      <c r="AK1" s="29" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="4" customFormat="1" ht="57">
       <c r="A2" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D2" s="5">
         <v>29063</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
@@ -2888,7 +2995,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="17" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="P2" s="3">
         <v>0</v>
@@ -2955,19 +3062,19 @@
     </row>
     <row r="3" spans="1:37" s="4" customFormat="1" ht="71">
       <c r="A3" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D3" s="5">
         <v>29084</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>11</v>
@@ -2987,7 +3094,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P3" s="3">
         <v>0</v>
@@ -3054,13 +3161,13 @@
     </row>
     <row r="4" spans="1:37" s="4" customFormat="1" ht="104" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D4" s="5">
         <v>29844</v>
@@ -3086,7 +3193,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
@@ -3153,13 +3260,13 @@
     </row>
     <row r="5" spans="1:37" s="4" customFormat="1" ht="70" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D5" s="5">
         <v>29922</v>
@@ -3185,7 +3292,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>
@@ -3252,19 +3359,19 @@
     </row>
     <row r="6" spans="1:37" s="4" customFormat="1" ht="70" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D6" s="5">
         <v>30515</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
@@ -3284,7 +3391,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="P6" s="3">
         <v>0</v>
@@ -3351,13 +3458,13 @@
     </row>
     <row r="7" spans="1:37" s="4" customFormat="1" ht="83" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D7" s="5">
         <v>30714</v>
@@ -3383,7 +3490,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P7" s="3">
         <v>0</v>
@@ -3450,13 +3557,13 @@
     </row>
     <row r="8" spans="1:37" s="4" customFormat="1" ht="43">
       <c r="A8" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D8" s="5">
         <v>30852</v>
@@ -3482,7 +3589,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="18" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -3549,13 +3656,13 @@
     </row>
     <row r="9" spans="1:37" s="4" customFormat="1" ht="43">
       <c r="A9" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D9" s="5">
         <v>31009</v>
@@ -3581,7 +3688,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -3654,13 +3761,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D10" s="5">
         <v>31729</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>30</v>
@@ -3680,7 +3787,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="17" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -3747,13 +3854,13 @@
     </row>
     <row r="11" spans="1:37" s="4" customFormat="1" ht="57">
       <c r="A11" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D11" s="5">
         <v>31933</v>
@@ -3779,7 +3886,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="P11" s="3">
         <v>0</v>
@@ -3852,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D12" s="5">
         <v>31951</v>
@@ -3861,7 +3968,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>16</v>
@@ -3878,7 +3985,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="17" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
@@ -3945,13 +4052,13 @@
     </row>
     <row r="13" spans="1:37" s="4" customFormat="1" ht="85">
       <c r="A13" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D13" s="5">
         <v>32330</v>
@@ -3977,7 +4084,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="P13" s="3">
         <v>0</v>
@@ -4050,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D14" s="5">
         <v>32482</v>
@@ -4076,7 +4183,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -4149,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D15" s="5">
         <v>32891</v>
@@ -4175,7 +4282,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -4248,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D16" s="5">
         <v>33217</v>
@@ -4274,7 +4381,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="P16" s="3">
         <v>0</v>
@@ -4341,13 +4448,13 @@
     </row>
     <row r="17" spans="1:37" s="4" customFormat="1" ht="29">
       <c r="A17" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D17" s="5">
         <v>33344</v>
@@ -4373,7 +4480,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -4446,13 +4553,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D18" s="5">
         <v>33706</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>11</v>
@@ -4472,7 +4579,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -4545,13 +4652,13 @@
         <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D19" s="5">
         <v>33835</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>11</v>
@@ -4571,7 +4678,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="P19" s="3">
         <v>0</v>
@@ -4638,13 +4745,13 @@
     </row>
     <row r="20" spans="1:37" s="4" customFormat="1" ht="57">
       <c r="A20" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D20" s="5">
         <v>33890</v>
@@ -4670,7 +4777,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -4737,13 +4844,13 @@
     </row>
     <row r="21" spans="1:37" s="4" customFormat="1" ht="29">
       <c r="A21" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D21" s="5">
         <v>33937</v>
@@ -4769,7 +4876,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
@@ -4842,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D22" s="5">
         <v>34205</v>
@@ -4868,7 +4975,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -4941,16 +5048,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D23" s="5">
         <v>34266</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>16</v>
@@ -4967,7 +5074,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="17" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -5034,13 +5141,13 @@
     </row>
     <row r="24" spans="1:37" s="4" customFormat="1" ht="85">
       <c r="A24" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D24" s="5">
         <v>34372</v>
@@ -5066,7 +5173,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -5139,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D25" s="5">
         <v>34383</v>
@@ -5165,7 +5272,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="17" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="P25" s="3">
         <v>0</v>
@@ -5238,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D26" s="5">
         <v>34451</v>
@@ -5264,7 +5371,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -5331,13 +5438,13 @@
     </row>
     <row r="27" spans="1:37" s="4" customFormat="1" ht="99">
       <c r="A27" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D27" s="5">
         <v>34457</v>
@@ -5363,13 +5470,13 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="R27" s="3"/>
       <c r="S27" s="4">
@@ -5438,13 +5545,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D28" s="5">
         <v>34530</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>11</v>
@@ -5464,7 +5571,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="17" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="P28" s="3">
         <v>0</v>
@@ -5531,13 +5638,13 @@
     </row>
     <row r="29" spans="1:37" s="4" customFormat="1" ht="71">
       <c r="A29" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D29" s="5">
         <v>34610</v>
@@ -5563,7 +5670,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -5630,13 +5737,13 @@
     </row>
     <row r="30" spans="1:37" s="4" customFormat="1" ht="57">
       <c r="A30" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D30" s="5">
         <v>34899</v>
@@ -5662,7 +5769,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="P30" s="3">
         <v>0</v>
@@ -5735,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D31" s="5">
         <v>35038</v>
@@ -5761,7 +5868,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="P31" s="3">
         <v>0</v>
@@ -5834,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D32" s="5">
         <v>35045</v>
@@ -5860,7 +5967,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -5927,13 +6034,13 @@
     </row>
     <row r="33" spans="1:37" s="4" customFormat="1" ht="71">
       <c r="A33" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B33" s="4">
         <v>0</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D33" s="5">
         <v>35158</v>
@@ -5959,7 +6066,7 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -6026,13 +6133,13 @@
     </row>
     <row r="34" spans="1:37" s="4" customFormat="1" ht="43">
       <c r="A34" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B34" s="8">
         <v>1</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D34" s="9">
         <v>35224</v>
@@ -6058,7 +6165,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="19" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P34" s="3">
         <v>0</v>
@@ -6131,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D35" s="13">
         <v>35304</v>
@@ -6157,7 +6264,7 @@
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="20" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -6230,13 +6337,13 @@
         <v>1</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D36" s="13">
         <v>35305</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>11</v>
@@ -6256,13 +6363,13 @@
         <v>1</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="P36" s="11">
         <v>0</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="R36" s="11"/>
       <c r="S36" s="12">
@@ -6325,19 +6432,19 @@
     </row>
     <row r="37" spans="1:37" s="4" customFormat="1" ht="57">
       <c r="A37" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D37" s="5">
         <v>35436</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>15</v>
@@ -6357,7 +6464,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="P37" s="3">
         <v>0</v>
@@ -6424,19 +6531,19 @@
     </row>
     <row r="38" spans="1:37" s="4" customFormat="1" ht="71">
       <c r="A38" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D38" s="5">
         <v>35442</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>8</v>
@@ -6456,7 +6563,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="P38" s="3">
         <v>0</v>
@@ -6523,19 +6630,19 @@
     </row>
     <row r="39" spans="1:37" s="8" customFormat="1" ht="43">
       <c r="A39" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D39" s="5">
         <v>35543</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>11</v>
@@ -6555,7 +6662,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="P39" s="3">
         <v>0</v>
@@ -6628,13 +6735,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D40" s="5">
         <v>35617</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>11</v>
@@ -6654,7 +6761,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="P40" s="3">
         <v>0</v>
@@ -6721,19 +6828,19 @@
     </row>
     <row r="41" spans="1:37" s="4" customFormat="1" ht="57">
       <c r="A41" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D41" s="5">
         <v>35627</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>11</v>
@@ -6753,7 +6860,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="17" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -6820,19 +6927,19 @@
     </row>
     <row r="42" spans="1:37" s="4" customFormat="1" ht="29">
       <c r="A42" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B42" s="4">
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D42" s="5">
         <v>35694</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -6852,7 +6959,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -6925,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D43" s="5">
         <v>35945</v>
@@ -6934,7 +7041,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>16</v>
@@ -6951,7 +7058,7 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="17" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -7024,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D44" s="5">
         <v>35977</v>
@@ -7033,7 +7140,7 @@
         <v>7</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>16</v>
@@ -7050,7 +7157,7 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="17" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -7117,19 +7224,19 @@
     </row>
     <row r="45" spans="1:37" s="4" customFormat="1" ht="43">
       <c r="A45" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D45" s="5">
         <v>35995</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>15</v>
@@ -7149,7 +7256,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -7222,13 +7329,13 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D46" s="5">
         <v>36044</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>11</v>
@@ -7248,7 +7355,7 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -7321,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D47" s="5">
         <v>36060</v>
@@ -7347,7 +7454,7 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -7414,13 +7521,13 @@
     </row>
     <row r="48" spans="1:37" s="4" customFormat="1" ht="57">
       <c r="A48" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D48" s="5">
         <v>36066</v>
@@ -7446,13 +7553,13 @@
         <v>1</v>
       </c>
       <c r="O48" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="P48" s="3">
         <v>1</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>385</v>
+        <v>742</v>
       </c>
       <c r="R48" s="3"/>
       <c r="S48" s="12">
@@ -7515,13 +7622,13 @@
     </row>
     <row r="49" spans="1:37" s="4" customFormat="1" ht="57">
       <c r="A49" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D49" s="5">
         <v>36116</v>
@@ -7547,13 +7654,13 @@
         <v>1</v>
       </c>
       <c r="O49" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="P49" s="3">
         <v>1</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>385</v>
+        <v>742</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="12">
@@ -7616,19 +7723,19 @@
     </row>
     <row r="50" spans="1:37" s="4" customFormat="1" ht="85">
       <c r="A50" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D50" s="5">
         <v>36141</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>15</v>
@@ -7637,7 +7744,7 @@
         <v>16</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -7648,7 +7755,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="P50" s="3">
         <v>0</v>
@@ -7715,13 +7822,13 @@
     </row>
     <row r="51" spans="1:37" s="4" customFormat="1" ht="57">
       <c r="A51" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B51" s="4">
         <v>1</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D51" s="5">
         <v>36146</v>
@@ -7747,7 +7854,7 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P51" s="3">
         <v>0</v>
@@ -7820,13 +7927,13 @@
         <v>0</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D52" s="9">
         <v>36163</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>11</v>
@@ -7846,7 +7953,7 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="19" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -7913,13 +8020,13 @@
     </row>
     <row r="53" spans="1:37" s="4" customFormat="1" ht="71">
       <c r="A53" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B53" s="12">
         <v>1</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D53" s="13">
         <v>36214</v>
@@ -7945,7 +8052,7 @@
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
       <c r="O53" s="21" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="P53" s="3">
         <v>0</v>
@@ -8012,13 +8119,13 @@
     </row>
     <row r="54" spans="1:37" s="4" customFormat="1" ht="57">
       <c r="A54" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B54" s="12">
         <v>1</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D54" s="13">
         <v>36248</v>
@@ -8044,7 +8151,7 @@
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="21" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P54" s="11">
         <v>0</v>
@@ -8117,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D55" s="13">
         <v>36252</v>
@@ -8214,13 +8321,13 @@
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D56" s="5">
         <v>36284</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>15</v>
@@ -8240,7 +8347,7 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P56" s="11">
         <v>0</v>
@@ -8313,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D57" s="5">
         <v>36317</v>
@@ -8339,7 +8446,7 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="P57" s="11">
         <v>0</v>
@@ -8406,13 +8513,13 @@
     </row>
     <row r="58" spans="1:37" s="12" customFormat="1" ht="43">
       <c r="A58" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B58" s="4">
         <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D58" s="5">
         <v>36318</v>
@@ -8438,7 +8545,7 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P58" s="11">
         <v>0</v>
@@ -8511,13 +8618,13 @@
         <v>0</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D59" s="5">
         <v>36340</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>11</v>
@@ -8537,13 +8644,13 @@
       </c>
       <c r="N59" s="3"/>
       <c r="O59" s="17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="R59" s="3"/>
       <c r="S59" s="12">
@@ -8606,13 +8713,13 @@
     </row>
     <row r="60" spans="1:37" s="4" customFormat="1" ht="57">
       <c r="A60" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B60" s="4">
         <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D60" s="5">
         <v>36412</v>
@@ -8638,7 +8745,7 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -8711,7 +8818,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D61" s="5">
         <v>36434</v>
@@ -8737,7 +8844,7 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -8804,13 +8911,13 @@
     </row>
     <row r="62" spans="1:37" s="4" customFormat="1" ht="71">
       <c r="A62" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B62" s="4">
         <v>0</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D62" s="5">
         <v>36447</v>
@@ -8836,7 +8943,7 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="17" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -8909,7 +9016,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D63" s="5">
         <v>36486</v>
@@ -8935,13 +9042,13 @@
         <v>1</v>
       </c>
       <c r="O63" s="22" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="P63" s="3">
         <v>0</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="R63" s="3"/>
       <c r="S63" s="12">
@@ -9004,13 +9111,13 @@
     </row>
     <row r="64" spans="1:37" s="4" customFormat="1" ht="43">
       <c r="A64" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D64" s="5">
         <v>36490</v>
@@ -9036,7 +9143,7 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="P64" s="3">
         <v>0</v>
@@ -9103,13 +9210,13 @@
     </row>
     <row r="65" spans="1:37" s="4" customFormat="1" ht="57">
       <c r="A65" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B65" s="4">
         <v>1</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D65" s="5">
         <v>36511</v>
@@ -9135,13 +9242,13 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="17" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="P65" s="3">
         <v>0</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="R65" s="3"/>
       <c r="S65" s="12">
@@ -9216,7 +9323,7 @@
         <v>36534</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>257</v>
@@ -9306,7 +9413,7 @@
         <v>36541</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>11</v>
@@ -9390,7 +9497,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D68" s="7">
         <v>36553</v>
@@ -9411,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="O68" s="17" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="P68" s="3">
         <v>0</v>
@@ -9488,7 +9595,7 @@
         <v>36555</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>11</v>
@@ -9572,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D70" s="7">
         <v>36650</v>
@@ -9593,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="O70" s="18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -9670,7 +9777,7 @@
         <v>36716</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>11</v>
@@ -9760,7 +9867,7 @@
         <v>36731</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>11</v>
@@ -9850,7 +9957,7 @@
         <v>36745</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>15</v>
@@ -9940,7 +10047,7 @@
         <v>36748</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>11</v>
@@ -10024,7 +10131,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D75" s="7">
         <v>36749</v>
@@ -10045,13 +10152,13 @@
         <v>1</v>
       </c>
       <c r="O75" s="17" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="P75" s="4">
         <v>1</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>385</v>
+        <v>742</v>
       </c>
       <c r="S75" s="12">
         <v>64</v>
@@ -10125,7 +10232,7 @@
         <v>36752</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>11</v>
@@ -10389,7 +10496,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D79" s="7">
         <v>36770</v>
@@ -10410,7 +10517,7 @@
         <v>1</v>
       </c>
       <c r="O79" s="18" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="P79" s="3">
         <v>0</v>
@@ -10487,7 +10594,7 @@
         <v>36777</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>11</v>
@@ -10571,13 +10678,13 @@
         <v>0</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D81" s="7">
         <v>36787</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>30</v>
@@ -10592,7 +10699,7 @@
         <v>1</v>
       </c>
       <c r="O81" s="18" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -10669,7 +10776,7 @@
         <v>36805</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>15</v>
@@ -10759,7 +10866,7 @@
         <v>36868</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>11</v>
@@ -10843,7 +10950,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D84" s="7">
         <v>36873</v>
@@ -10864,7 +10971,7 @@
         <v>1</v>
       </c>
       <c r="O84" s="23" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="P84" s="3">
         <v>0</v>
@@ -10941,7 +11048,7 @@
         <v>36897</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>11</v>
@@ -11025,13 +11132,13 @@
         <v>0</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D86" s="7">
         <v>36991</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>30</v>
@@ -11046,7 +11153,7 @@
         <v>1</v>
       </c>
       <c r="O86" s="18" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="P86" s="3">
         <v>0</v>
@@ -11117,7 +11224,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D87" s="7">
         <v>37062</v>
@@ -11138,7 +11245,7 @@
         <v>1</v>
       </c>
       <c r="O87" s="17" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="P87" s="3">
         <v>0</v>
@@ -11215,7 +11322,7 @@
         <v>37077</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>11</v>
@@ -11395,7 +11502,7 @@
         <v>37146</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>8</v>
@@ -11479,13 +11586,13 @@
         <v>0</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D91" s="7">
         <v>37146</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>30</v>
@@ -11500,7 +11607,7 @@
         <v>1</v>
       </c>
       <c r="O91" s="18" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -11571,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D92" s="7">
         <v>37197</v>
@@ -11667,7 +11774,7 @@
         <v>37288</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>11</v>
@@ -11757,7 +11864,7 @@
         <v>37392</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>11</v>
@@ -11847,7 +11954,7 @@
         <v>37397</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>8</v>
@@ -11931,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D96" s="7">
         <v>37419</v>
@@ -11952,7 +12059,7 @@
         <v>1</v>
       </c>
       <c r="O96" s="17" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
@@ -12029,7 +12136,7 @@
         <v>37497</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>11</v>
@@ -12389,7 +12496,7 @@
         <v>37702</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>15</v>
@@ -12665,7 +12772,7 @@
         <v>37777</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>8</v>
@@ -12749,7 +12856,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D105" s="7">
         <v>37811</v>
@@ -13025,7 +13132,7 @@
         <v>37882</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>30</v>
@@ -13109,7 +13216,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D109" s="7">
         <v>37890</v>
@@ -13130,7 +13237,7 @@
         <v>1</v>
       </c>
       <c r="O109" s="18" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="P109" s="3">
         <v>0</v>
@@ -13207,7 +13314,7 @@
         <v>37906</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>11</v>
@@ -13297,7 +13404,7 @@
         <v>37906</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>301</v>
@@ -13387,7 +13494,7 @@
         <v>37906</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>11</v>
@@ -13471,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D113" s="7">
         <v>37907</v>
@@ -13567,7 +13674,7 @@
         <v>37962</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>11</v>
@@ -13651,7 +13758,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D115" s="7">
         <v>37966</v>
@@ -13747,7 +13854,7 @@
         <v>38014</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>30</v>
@@ -13856,7 +13963,7 @@
         <v>1</v>
       </c>
       <c r="Q117" s="4" t="s">
-        <v>385</v>
+        <v>742</v>
       </c>
       <c r="R117" s="4" t="s">
         <v>384</v>
@@ -13933,7 +14040,7 @@
         <v>38137</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>30</v>
@@ -14023,7 +14130,7 @@
         <v>38200</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>30</v>
@@ -14132,10 +14239,10 @@
         <v>1</v>
       </c>
       <c r="Q120" s="4" t="s">
-        <v>385</v>
+        <v>742</v>
       </c>
       <c r="R120" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S120" s="12">
         <v>75</v>
@@ -14318,10 +14425,10 @@
         <v>1</v>
       </c>
       <c r="Q122" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="R122" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="R122" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="S122" s="12">
         <v>75</v>
@@ -14383,13 +14490,13 @@
     </row>
     <row r="123" spans="1:37" s="4" customFormat="1" ht="71">
       <c r="A123" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B123" s="4">
         <v>1</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D123" s="7">
         <v>38301</v>
@@ -14410,7 +14517,7 @@
         <v>1</v>
       </c>
       <c r="O123" s="18" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="P123" s="3">
         <v>0</v>
@@ -14481,7 +14588,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D124" s="7">
         <v>38341</v>
@@ -14577,7 +14684,7 @@
         <v>38350</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>11</v>
@@ -14841,13 +14948,13 @@
         <v>1</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D128" s="7">
         <v>38532</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>11</v>
@@ -14937,7 +15044,7 @@
         <v>38590</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>11</v>
@@ -15117,7 +15224,7 @@
         <v>38701</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>11</v>
@@ -15195,13 +15302,13 @@
     </row>
     <row r="132" spans="1:37" s="4" customFormat="1" ht="85">
       <c r="A132" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B132" s="4">
         <v>1</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D132" s="7">
         <v>38776</v>
@@ -15216,13 +15323,13 @@
         <v>16</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K132" s="4">
         <v>1</v>
       </c>
       <c r="O132" s="18" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="P132" s="3">
         <v>0</v>
@@ -15318,10 +15425,10 @@
         <v>1</v>
       </c>
       <c r="Q133" s="4" t="s">
-        <v>385</v>
+        <v>742</v>
       </c>
       <c r="R133" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S133" s="12">
         <v>73</v>
@@ -15389,7 +15496,7 @@
         <v>1</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D134" s="7">
         <v>38824</v>
@@ -15414,10 +15521,10 @@
         <v>1</v>
       </c>
       <c r="Q134" s="4" t="s">
-        <v>385</v>
+        <v>742</v>
       </c>
       <c r="R134" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S134" s="12">
         <v>73</v>
@@ -15491,7 +15598,7 @@
         <v>38907</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>11</v>
@@ -15569,13 +15676,13 @@
     </row>
     <row r="136" spans="1:37" s="4" customFormat="1" ht="85">
       <c r="A136" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B136" s="4">
         <v>1</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D136" s="7">
         <v>38950</v>
@@ -15596,7 +15703,7 @@
         <v>1</v>
       </c>
       <c r="O136" s="18" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="P136" s="3">
         <v>0</v>
@@ -15763,7 +15870,7 @@
         <v>39005</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>30</v>
@@ -15782,7 +15889,7 @@
         <v>0</v>
       </c>
       <c r="Q138" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="S138" s="12">
         <v>73</v>
@@ -15875,10 +15982,10 @@
         <v>1</v>
       </c>
       <c r="Q139" s="4" t="s">
-        <v>385</v>
+        <v>742</v>
       </c>
       <c r="R139" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="S139" s="12">
         <v>73</v>
@@ -16042,7 +16149,7 @@
         <v>39047</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>30</v>
@@ -16132,7 +16239,7 @@
         <v>39064</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>11</v>
@@ -16222,7 +16329,7 @@
         <v>39069</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>11</v>
@@ -16331,10 +16438,10 @@
         <v>0</v>
       </c>
       <c r="Q144" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="R144" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="S144" s="12">
         <v>69</v>
@@ -16408,7 +16515,7 @@
         <v>39090</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>11</v>
@@ -16790,7 +16897,7 @@
         <v>383</v>
       </c>
       <c r="R149" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="S149" s="12">
         <v>69</v>
@@ -16852,13 +16959,13 @@
     </row>
     <row r="150" spans="1:37" s="4" customFormat="1">
       <c r="A150" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B150" s="4">
         <v>1</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D150" s="7">
         <v>39303</v>
@@ -16879,7 +16986,7 @@
         <v>1</v>
       </c>
       <c r="O150" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="P150" s="3">
         <v>0</v>
@@ -16950,7 +17057,7 @@
         <v>1</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D151" s="7">
         <v>39325</v>
@@ -16971,13 +17078,13 @@
         <v>1</v>
       </c>
       <c r="O151" s="18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="P151" s="4">
         <v>0</v>
       </c>
       <c r="Q151" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="S151" s="12">
         <v>69</v>
@@ -17219,19 +17326,19 @@
     </row>
     <row r="154" spans="1:37" s="4" customFormat="1" ht="29">
       <c r="A154" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B154" s="4">
         <v>1</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D154" s="7">
         <v>39595</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>11</v>
@@ -17246,7 +17353,7 @@
         <v>1</v>
       </c>
       <c r="O154" s="18" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="P154" s="3">
         <v>0</v>
@@ -17497,7 +17604,7 @@
         <v>0</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D157" s="7">
         <v>39744</v>
@@ -17518,7 +17625,7 @@
         <v>1</v>
       </c>
       <c r="O157" s="18" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="P157" s="3">
         <v>0</v>
@@ -17859,13 +17966,13 @@
         <v>0</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D161" s="7">
         <v>39983</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>8</v>
@@ -17880,7 +17987,7 @@
         <v>1</v>
       </c>
       <c r="O161" s="18" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="P161" s="3">
         <v>0</v>
@@ -17951,7 +18058,7 @@
         <v>0</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D162" s="7">
         <v>40021</v>
@@ -17972,7 +18079,7 @@
         <v>1</v>
       </c>
       <c r="O162" s="18" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="P162" s="3">
         <v>0</v>
@@ -18397,13 +18504,13 @@
     </row>
     <row r="167" spans="1:37" s="4" customFormat="1" ht="43">
       <c r="A167" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B167" s="4">
         <v>1</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D167" s="7">
         <v>40104</v>
@@ -18424,7 +18531,7 @@
         <v>1</v>
       </c>
       <c r="O167" s="18" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="P167" s="3">
         <v>0</v>
@@ -18585,13 +18692,13 @@
         <v>0</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D169" s="7">
         <v>40209</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>8</v>
@@ -18669,13 +18776,13 @@
     </row>
     <row r="170" spans="1:37" s="4" customFormat="1" ht="57">
       <c r="A170" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B170" s="4">
         <v>1</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D170" s="7">
         <v>40238</v>
@@ -18696,7 +18803,7 @@
         <v>1</v>
       </c>
       <c r="O170" s="18" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="P170" s="3">
         <v>0</v>
@@ -18792,10 +18899,10 @@
         <v>0</v>
       </c>
       <c r="Q171" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="R171" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="S171" s="12">
         <v>76</v>
@@ -19139,7 +19246,7 @@
         <v>40356</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>11</v>
@@ -19217,13 +19324,13 @@
     </row>
     <row r="176" spans="1:37" s="4" customFormat="1" ht="85">
       <c r="A176" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B176" s="4">
         <v>1</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D176" s="7">
         <v>40556</v>
@@ -19244,7 +19351,7 @@
         <v>1</v>
       </c>
       <c r="O176" s="18" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P176" s="3">
         <v>0</v>
@@ -19405,13 +19512,13 @@
         <v>0</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D178" s="7">
         <v>40612</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>8</v>
@@ -19489,19 +19596,19 @@
     </row>
     <row r="179" spans="1:37" s="4" customFormat="1" ht="57">
       <c r="A179" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B179" s="4">
         <v>0</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D179" s="7">
         <v>40655</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>8</v>
@@ -19516,7 +19623,7 @@
         <v>1</v>
       </c>
       <c r="O179" s="18" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="P179" s="3">
         <v>0</v>
@@ -19863,7 +19970,7 @@
         <v>40776</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>11</v>
@@ -19941,13 +20048,13 @@
     </row>
     <row r="184" spans="1:37" s="4" customFormat="1" ht="43">
       <c r="A184" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B184" s="4">
         <v>0</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D184" s="7">
         <v>40807</v>
@@ -19968,7 +20075,7 @@
         <v>1</v>
       </c>
       <c r="O184" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="P184" s="3">
         <v>0</v>
@@ -20045,7 +20152,7 @@
         <v>40895</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>11</v>
@@ -20225,7 +20332,7 @@
         <v>41021</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>11</v>
@@ -20405,7 +20512,7 @@
         <v>41040</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>15</v>
@@ -20579,7 +20686,7 @@
         <v>1</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D191" s="7">
         <v>41066</v>
@@ -20600,7 +20707,7 @@
         <v>1</v>
       </c>
       <c r="O191" s="18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="P191" s="3">
         <v>0</v>
@@ -20767,7 +20874,7 @@
         <v>41165</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>8</v>
@@ -20851,13 +20958,13 @@
         <v>0</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D194" s="7">
         <v>41184</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>8</v>
@@ -21037,7 +21144,7 @@
         <v>41210</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>15</v>
@@ -21217,7 +21324,7 @@
         <v>41245</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>11</v>
@@ -21307,7 +21414,7 @@
         <v>41252</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F199" s="4" t="s">
         <v>11</v>
@@ -21397,7 +21504,7 @@
         <v>41343</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F200" s="4" t="s">
         <v>11</v>
@@ -21481,7 +21588,7 @@
         <v>1</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D201" s="7">
         <v>41353</v>
@@ -21502,7 +21609,7 @@
         <v>1</v>
       </c>
       <c r="O201" s="18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="P201" s="3">
         <v>0</v>
@@ -21579,7 +21686,7 @@
         <v>41371</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F202" s="4" t="s">
         <v>30</v>
@@ -21669,7 +21776,7 @@
         <v>41372</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F203" s="4" t="s">
         <v>11</v>
@@ -21759,7 +21866,7 @@
         <v>41392</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F204" s="4" t="s">
         <v>8</v>
@@ -21849,7 +21956,7 @@
         <v>41409</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F205" s="4" t="s">
         <v>8</v>
@@ -22017,13 +22124,13 @@
     </row>
     <row r="207" spans="1:37" s="4" customFormat="1" ht="85">
       <c r="A207" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B207" s="4">
         <v>1</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D207" s="7">
         <v>41421</v>
@@ -22044,7 +22151,7 @@
         <v>1</v>
       </c>
       <c r="O207" s="18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="P207" s="3">
         <v>0</v>
@@ -22211,7 +22318,7 @@
         <v>41432</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>11</v>
@@ -22655,13 +22762,13 @@
         <v>1</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D214" s="7">
         <v>41523</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>11</v>
@@ -22680,10 +22787,10 @@
         <v>0</v>
       </c>
       <c r="Q214" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="R214" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="S214" s="12">
         <v>76</v>
@@ -22757,7 +22864,7 @@
         <v>41530</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>11</v>
@@ -22937,7 +23044,7 @@
         <v>41597</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F217" s="4" t="s">
         <v>15</v>
@@ -23117,7 +23224,7 @@
         <v>41645</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F219" s="4" t="s">
         <v>11</v>
@@ -23207,7 +23314,7 @@
         <v>41651</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>8</v>
@@ -23297,7 +23404,7 @@
         <v>41671</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>8</v>
@@ -23477,7 +23584,7 @@
         <v>41739</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>11</v>
@@ -23567,7 +23674,7 @@
         <v>41747</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>11</v>
@@ -23657,7 +23764,7 @@
         <v>41782</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>11</v>
@@ -23927,7 +24034,7 @@
         <v>41798</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>11</v>
@@ -24095,13 +24202,13 @@
     </row>
     <row r="230" spans="1:37" s="4" customFormat="1" ht="29">
       <c r="A230" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B230" s="4">
         <v>1</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D230" s="7">
         <v>41810</v>
@@ -24122,7 +24229,7 @@
         <v>1</v>
       </c>
       <c r="O230" s="18" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P230" s="3">
         <v>0</v>
@@ -24199,7 +24306,7 @@
         <v>41817</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>11</v>
@@ -24289,7 +24396,7 @@
         <v>41833</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F232" s="4" t="s">
         <v>11</v>
@@ -24739,7 +24846,7 @@
         <v>41959</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>11</v>
@@ -24848,10 +24955,10 @@
         <v>0</v>
       </c>
       <c r="Q238" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="R238" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S238" s="12">
         <v>74</v>
@@ -24925,7 +25032,7 @@
         <v>42029</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>11</v>
@@ -25015,7 +25122,7 @@
         <v>42032</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>8</v>
@@ -25099,13 +25206,13 @@
         <v>1</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D241" s="7">
         <v>42036</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>11</v>
@@ -25120,7 +25227,7 @@
         <v>1</v>
       </c>
       <c r="O241" s="18" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="P241" s="3">
         <v>0</v>
@@ -25191,7 +25298,7 @@
         <v>1</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D242" s="7">
         <v>42079</v>
@@ -25275,19 +25382,19 @@
     </row>
     <row r="243" spans="1:37" s="4" customFormat="1" ht="57">
       <c r="A243" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B243" s="4">
         <v>0</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D243" s="7">
         <v>42086</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F243" s="4" t="s">
         <v>8</v>
@@ -25302,7 +25409,7 @@
         <v>1</v>
       </c>
       <c r="O243" s="18" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="P243" s="3">
         <v>0</v>
@@ -25379,7 +25486,7 @@
         <v>42088</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>30</v>
@@ -25457,13 +25564,13 @@
     </row>
     <row r="245" spans="1:37" s="4" customFormat="1" ht="57">
       <c r="A245" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B245" s="4">
         <v>1</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D245" s="7">
         <v>42091</v>
@@ -25484,7 +25591,7 @@
         <v>1</v>
       </c>
       <c r="O245" s="18" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="P245" s="3">
         <v>0</v>
@@ -25555,13 +25662,13 @@
         <v>0</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D246" s="7">
         <v>42097</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>8</v>
@@ -25576,7 +25683,7 @@
         <v>1</v>
       </c>
       <c r="O246" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="P246" s="3">
         <v>0</v>
@@ -25821,13 +25928,13 @@
     </row>
     <row r="249" spans="1:37" s="4" customFormat="1" ht="29">
       <c r="A249" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B249" s="4">
         <v>1</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D249" s="7">
         <v>42114</v>
@@ -25848,7 +25955,7 @@
         <v>1</v>
       </c>
       <c r="O249" s="18" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="P249" s="3">
         <v>0</v>
@@ -26015,7 +26122,7 @@
         <v>42161</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>8</v>
@@ -26105,7 +26212,7 @@
         <v>42169</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>30</v>
@@ -26285,7 +26392,7 @@
         <v>42193</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>11</v>
@@ -26304,10 +26411,10 @@
         <v>0</v>
       </c>
       <c r="Q254" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="R254" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="R254" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="S254" s="12">
         <v>72</v>
@@ -26381,7 +26488,7 @@
         <v>42218</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>11</v>
@@ -26471,7 +26578,7 @@
         <v>42223</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F256" s="4" t="s">
         <v>183</v>
@@ -26651,7 +26758,7 @@
         <v>42242</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>11</v>
@@ -26831,7 +26938,7 @@
         <v>42248</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F260" s="4" t="s">
         <v>8</v>
@@ -27101,7 +27208,7 @@
         <v>42362</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F263" s="4" t="s">
         <v>15</v>
@@ -27191,7 +27298,7 @@
         <v>42384</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F264" s="4" t="s">
         <v>11</v>
@@ -27362,7 +27469,7 @@
         <v>66</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D266" s="7">
         <v>42421</v>
@@ -27383,7 +27490,7 @@
         <v>1</v>
       </c>
       <c r="O266" s="18" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="P266" s="3">
         <v>0</v>
@@ -27550,7 +27657,7 @@
         <v>42432</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F268" s="4" t="s">
         <v>15</v>
@@ -27640,7 +27747,7 @@
         <v>42477</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F269" s="4" t="s">
         <v>11</v>
@@ -27730,7 +27837,7 @@
         <v>42490</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F270" s="4" t="s">
         <v>15</v>
@@ -27820,7 +27927,7 @@
         <v>42503</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F271" s="4" t="s">
         <v>11</v>
@@ -27839,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="Q271" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="S271" s="12">
         <v>73</v>
@@ -27907,13 +28014,13 @@
         <v>1</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D272" s="7">
         <v>42505</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F272" s="4" t="s">
         <v>11</v>
@@ -27928,7 +28035,7 @@
         <v>1</v>
       </c>
       <c r="O272" s="18" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="P272" s="3">
         <v>0</v>
@@ -28207,7 +28314,7 @@
         <v>383</v>
       </c>
       <c r="R275" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="S275" s="12">
         <v>73</v>
@@ -28371,7 +28478,7 @@
         <v>42582</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F277" s="4" t="s">
         <v>11</v>
@@ -28455,7 +28562,7 @@
         <v>0</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D278" s="7">
         <v>42592</v>
@@ -28477,13 +28584,13 @@
         <v>1</v>
       </c>
       <c r="O278" s="18" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="P278" s="4">
         <v>1</v>
       </c>
       <c r="Q278" s="4" t="s">
-        <v>385</v>
+        <v>742</v>
       </c>
       <c r="S278" s="12">
         <v>73</v>
@@ -28635,13 +28742,13 @@
     </row>
     <row r="280" spans="1:37" s="4" customFormat="1" ht="71">
       <c r="A280" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B280" s="4">
         <v>1</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D280" s="7">
         <v>42594</v>
@@ -28662,13 +28769,13 @@
         <v>1</v>
       </c>
       <c r="O280" s="18" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="P280" s="4">
         <v>1</v>
       </c>
       <c r="Q280" s="4" t="s">
-        <v>385</v>
+        <v>742</v>
       </c>
       <c r="S280" s="12">
         <v>73</v>
@@ -28742,7 +28849,7 @@
         <v>42596</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F281" s="4" t="s">
         <v>11</v>
@@ -28922,7 +29029,7 @@
         <v>42610</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F283" s="4" t="s">
         <v>30</v>
@@ -29102,7 +29209,7 @@
         <v>42629</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F285" s="4" t="s">
         <v>15</v>
@@ -29186,13 +29293,13 @@
         <v>0</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D286" s="7">
         <v>42678</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F286" s="4" t="s">
         <v>8</v>
@@ -29207,13 +29314,13 @@
         <v>1</v>
       </c>
       <c r="O286" s="18" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="P286" s="4">
         <v>1</v>
       </c>
       <c r="Q286" s="4" t="s">
-        <v>385</v>
+        <v>742</v>
       </c>
       <c r="S286" s="12">
         <v>73</v>
@@ -29281,13 +29388,13 @@
         <v>0</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D287" s="7">
         <v>42689</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F287" s="4" t="s">
         <v>8</v>
@@ -29302,13 +29409,13 @@
         <v>1</v>
       </c>
       <c r="O287" s="18" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="P287" s="4">
         <v>0</v>
       </c>
       <c r="Q287" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="S287" s="12">
         <v>73</v>
@@ -29376,13 +29483,13 @@
         <v>0</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D288" s="7">
         <v>42717</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F288" s="4" t="s">
         <v>8</v>
@@ -29397,13 +29504,13 @@
         <v>1</v>
       </c>
       <c r="O288" s="18" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P288" s="4">
         <v>1</v>
       </c>
       <c r="Q288" s="4" t="s">
-        <v>385</v>
+        <v>742</v>
       </c>
       <c r="S288" s="12">
         <v>73</v>
@@ -29477,7 +29584,7 @@
         <v>42727</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F289" s="4" t="s">
         <v>15</v>
@@ -29564,7 +29671,7 @@
         <v>42772</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F290" s="4" t="s">
         <v>8</v>
@@ -29586,7 +29693,7 @@
         <v>383</v>
       </c>
       <c r="R290" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S290" s="12">
         <v>72</v>
@@ -29682,7 +29789,7 @@
         <v>383</v>
       </c>
       <c r="R291" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="S291" s="12">
         <v>72</v>
@@ -29775,10 +29882,10 @@
         <v>0</v>
       </c>
       <c r="Q292" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="R292" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S292" s="12">
         <v>72</v>
@@ -29852,7 +29959,7 @@
         <v>42808</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F293" s="4" t="s">
         <v>198</v>
@@ -30032,7 +30139,7 @@
         <v>42843</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F295" s="4" t="s">
         <v>11</v>
@@ -30206,13 +30313,13 @@
         <v>0</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D297" s="7">
         <v>42873</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F297" s="4" t="s">
         <v>8</v>
@@ -30227,13 +30334,13 @@
         <v>1</v>
       </c>
       <c r="O297" s="18" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="P297" s="4">
         <v>1</v>
       </c>
       <c r="Q297" s="4" t="s">
-        <v>385</v>
+        <v>742</v>
       </c>
       <c r="S297" s="12">
         <v>72</v>
@@ -30397,7 +30504,7 @@
         <v>42919</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F299" s="4" t="s">
         <v>11</v>
@@ -30487,7 +30594,7 @@
         <v>42939</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F300" s="4" t="s">
         <v>11</v>
@@ -30667,7 +30774,7 @@
         <v>42991</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F302" s="4" t="s">
         <v>15</v>
@@ -30779,7 +30886,7 @@
         <v>383</v>
       </c>
       <c r="R303" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="S303" s="12">
         <v>72</v>
@@ -30943,7 +31050,7 @@
         <v>43056</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F305" s="4" t="s">
         <v>30</v>
@@ -31207,7 +31314,7 @@
         <v>0</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D308" s="7">
         <v>43218</v>
@@ -31228,13 +31335,13 @@
         <v>1</v>
       </c>
       <c r="O308" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="P308" s="4">
         <v>1</v>
       </c>
       <c r="Q308" s="4" t="s">
-        <v>385</v>
+        <v>742</v>
       </c>
       <c r="S308" s="12">
         <v>74</v>
@@ -31308,7 +31415,7 @@
         <v>43329</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F309" s="4" t="s">
         <v>15</v>
@@ -31327,10 +31434,10 @@
         <v>1</v>
       </c>
       <c r="Q309" s="4" t="s">
-        <v>385</v>
+        <v>742</v>
       </c>
       <c r="R309" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="S309" s="12">
         <v>74</v>
@@ -31513,10 +31620,10 @@
         <v>1</v>
       </c>
       <c r="Q311" s="4" t="s">
-        <v>391</v>
+        <v>743</v>
       </c>
       <c r="R311" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S311" s="12">
         <v>74</v>
@@ -31590,7 +31697,7 @@
         <v>43429</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F312" s="4" t="s">
         <v>11</v>
@@ -31612,7 +31719,7 @@
         <v>383</v>
       </c>
       <c r="R312" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="S312" s="12">
         <v>74</v>
@@ -31686,7 +31793,7 @@
         <v>43476</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F313" s="4" t="s">
         <v>11</v>
@@ -31705,10 +31812,10 @@
         <v>1</v>
       </c>
       <c r="Q313" s="4" t="s">
-        <v>385</v>
+        <v>742</v>
       </c>
       <c r="R313" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="S313" s="12">
         <v>73</v>
@@ -31782,7 +31889,7 @@
         <v>43502</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F314" s="4" t="s">
         <v>15</v>
@@ -31891,10 +31998,10 @@
         <v>1</v>
       </c>
       <c r="Q315" s="4" t="s">
-        <v>391</v>
+        <v>743</v>
       </c>
       <c r="R315" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S315" s="12">
         <v>73</v>
@@ -31956,19 +32063,19 @@
     </row>
     <row r="316" spans="1:37" s="4" customFormat="1" ht="43">
       <c r="A316" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B316" s="4">
         <v>1</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D316" s="7">
         <v>43535</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F316" s="4" t="s">
         <v>11</v>
@@ -31983,7 +32090,7 @@
         <v>1</v>
       </c>
       <c r="O316" s="18" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="S316" s="12">
         <v>73</v>
@@ -32057,7 +32164,7 @@
         <v>43543</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F317" s="4" t="s">
         <v>15</v>
@@ -32076,10 +32183,10 @@
         <v>1</v>
       </c>
       <c r="Q317" s="4" t="s">
-        <v>391</v>
+        <v>743</v>
       </c>
       <c r="R317" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="S317" s="12">
         <v>73</v>
@@ -32243,7 +32350,7 @@
         <v>43663</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F319" s="4" t="s">
         <v>15</v>
@@ -32333,13 +32440,13 @@
         <v>43679</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F320" s="4" t="s">
         <v>218</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H320" s="4">
         <v>5</v>
@@ -32352,10 +32459,10 @@
         <v>0</v>
       </c>
       <c r="Q320" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="R320" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="S320" s="12">
         <v>73</v>
@@ -32609,7 +32716,7 @@
         <v>43706</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F323" s="4" t="s">
         <v>220</v>
@@ -32699,7 +32806,7 @@
         <v>43716</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F324" s="4" t="s">
         <v>224</v>
@@ -32721,7 +32828,7 @@
         <v>383</v>
       </c>
       <c r="R324" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="S324" s="12">
         <v>73</v>
@@ -32904,10 +33011,10 @@
         <v>1</v>
       </c>
       <c r="Q326" s="4" t="s">
-        <v>391</v>
+        <v>743</v>
       </c>
       <c r="R326" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="S326" s="12">
         <v>73</v>
@@ -32981,7 +33088,7 @@
         <v>43783</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F327" s="4" t="s">
         <v>11</v>
@@ -33149,19 +33256,19 @@
     </row>
     <row r="329" spans="1:37" s="4" customFormat="1" ht="29">
       <c r="A329" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B329" s="4">
         <v>1</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D329" s="7">
         <v>43836</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F329" s="4" t="s">
         <v>30</v>
@@ -33176,7 +33283,7 @@
         <v>1</v>
       </c>
       <c r="O329" s="18" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="P329" s="4">
         <v>0</v>
@@ -33253,7 +33360,7 @@
         <v>43883</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F330" s="4" t="s">
         <v>15</v>
@@ -33272,10 +33379,10 @@
         <v>1</v>
       </c>
       <c r="Q330" s="4" t="s">
-        <v>391</v>
+        <v>743</v>
       </c>
       <c r="R330" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="S330" s="12">
         <v>73</v>
@@ -33349,7 +33456,7 @@
         <v>43910</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F331" s="4" t="s">
         <v>15</v>
@@ -33427,19 +33534,19 @@
     </row>
     <row r="332" spans="1:37" s="4" customFormat="1" ht="85">
       <c r="A332" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B332" s="4">
         <v>0</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D332" s="7">
         <v>43912</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F332" s="4" t="s">
         <v>8</v>
@@ -33454,7 +33561,7 @@
         <v>1</v>
       </c>
       <c r="O332" s="18" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="P332" s="4">
         <v>0</v>
@@ -33787,65 +33894,942 @@
         <v>0.26683950000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:37" s="4" customFormat="1">
-      <c r="D336" s="7"/>
-      <c r="O336" s="18"/>
-    </row>
-    <row r="337" spans="4:36" s="4" customFormat="1">
-      <c r="D337" s="7"/>
-      <c r="O337" s="18"/>
-    </row>
-    <row r="338" spans="4:36" s="4" customFormat="1">
-      <c r="D338" s="7"/>
-      <c r="O338" s="18"/>
-    </row>
-    <row r="339" spans="4:36" s="4" customFormat="1">
-      <c r="D339" s="7"/>
-      <c r="O339" s="18"/>
-    </row>
-    <row r="340" spans="4:36" s="4" customFormat="1">
-      <c r="D340" s="7"/>
-      <c r="O340" s="18"/>
-    </row>
-    <row r="341" spans="4:36" s="4" customFormat="1">
-      <c r="D341" s="7"/>
-      <c r="O341" s="18"/>
-    </row>
-    <row r="342" spans="4:36" s="4" customFormat="1">
-      <c r="D342" s="7"/>
-      <c r="O342" s="18"/>
-    </row>
-    <row r="343" spans="4:36" s="4" customFormat="1">
-      <c r="D343" s="7"/>
-      <c r="O343" s="18"/>
-    </row>
-    <row r="344" spans="4:36" s="4" customFormat="1">
-      <c r="D344" s="7"/>
-      <c r="O344" s="18"/>
-      <c r="AB344"/>
-      <c r="AC344"/>
-      <c r="AD344"/>
-      <c r="AE344"/>
-      <c r="AF344"/>
-      <c r="AG344"/>
-      <c r="AH344"/>
-      <c r="AI344"/>
-      <c r="AJ344"/>
-    </row>
-    <row r="345" spans="4:36" s="4" customFormat="1">
-      <c r="D345" s="7"/>
-      <c r="O345" s="18"/>
-      <c r="AB345"/>
-      <c r="AC345"/>
-      <c r="AD345"/>
-      <c r="AE345"/>
-      <c r="AF345"/>
-      <c r="AG345"/>
-      <c r="AH345"/>
-      <c r="AI345"/>
-      <c r="AJ345"/>
-    </row>
-    <row r="346" spans="4:36" s="4" customFormat="1">
+    <row r="336" spans="1:37" s="4" customFormat="1" ht="71">
+      <c r="A336" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B336" s="4">
+        <v>1</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="D336" s="7">
+        <v>43949</v>
+      </c>
+      <c r="E336" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F336" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G336" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H336" s="4">
+        <v>9</v>
+      </c>
+      <c r="K336" s="4">
+        <v>1</v>
+      </c>
+      <c r="O336" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="P336" s="4">
+        <v>0</v>
+      </c>
+      <c r="S336" s="12">
+        <v>73</v>
+      </c>
+      <c r="T336" s="12">
+        <v>116</v>
+      </c>
+      <c r="U336" s="4">
+        <v>2019</v>
+      </c>
+      <c r="V336" s="28">
+        <v>-0.37011909999999998</v>
+      </c>
+      <c r="W336" s="28">
+        <v>0.12189099</v>
+      </c>
+      <c r="X336" s="28">
+        <v>0.50643559999999999</v>
+      </c>
+      <c r="Y336" s="28">
+        <v>0.14306478</v>
+      </c>
+      <c r="Z336" s="28">
+        <v>-0.34553329999999999</v>
+      </c>
+      <c r="AA336" s="28">
+        <v>0.14380709999999999</v>
+      </c>
+      <c r="AB336" s="28">
+        <v>0.49411319999999997</v>
+      </c>
+      <c r="AC336" s="28">
+        <v>0.15766794000000001</v>
+      </c>
+      <c r="AD336" s="28">
+        <v>5.4936170000000001E-3</v>
+      </c>
+      <c r="AE336" s="28">
+        <v>0.318577</v>
+      </c>
+      <c r="AF336" s="28">
+        <v>6.9772276999999994E-2</v>
+      </c>
+      <c r="AG336" s="28">
+        <v>0.27290930000000002</v>
+      </c>
+      <c r="AH336" s="28">
+        <v>-0.126577778</v>
+      </c>
+      <c r="AI336" s="28">
+        <v>0.22553509999999999</v>
+      </c>
+      <c r="AJ336" s="28">
+        <v>3.8037736000000003E-2</v>
+      </c>
+      <c r="AK336" s="28">
+        <v>0.26683950000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:37" s="4" customFormat="1" ht="66">
+      <c r="A337" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="B337" s="4">
+        <v>1</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="D337" s="7">
+        <v>43953</v>
+      </c>
+      <c r="E337" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="F337" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G337" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H337" s="4">
+        <v>10</v>
+      </c>
+      <c r="K337" s="4">
+        <v>1</v>
+      </c>
+      <c r="O337" s="30" t="s">
+        <v>731</v>
+      </c>
+      <c r="P337" s="4">
+        <v>0</v>
+      </c>
+      <c r="S337" s="12">
+        <v>73</v>
+      </c>
+      <c r="T337" s="12">
+        <v>116</v>
+      </c>
+      <c r="U337" s="4">
+        <v>2019</v>
+      </c>
+      <c r="V337" s="28">
+        <v>-0.37011909999999998</v>
+      </c>
+      <c r="W337" s="28">
+        <v>0.12189099</v>
+      </c>
+      <c r="X337" s="28">
+        <v>0.50643559999999999</v>
+      </c>
+      <c r="Y337" s="28">
+        <v>0.14306478</v>
+      </c>
+      <c r="Z337" s="28">
+        <v>-0.34553329999999999</v>
+      </c>
+      <c r="AA337" s="28">
+        <v>0.14380709999999999</v>
+      </c>
+      <c r="AB337" s="28">
+        <v>0.49411319999999997</v>
+      </c>
+      <c r="AC337" s="28">
+        <v>0.15766794000000001</v>
+      </c>
+      <c r="AD337" s="28">
+        <v>5.4936170000000001E-3</v>
+      </c>
+      <c r="AE337" s="28">
+        <v>0.318577</v>
+      </c>
+      <c r="AF337" s="28">
+        <v>6.9772276999999994E-2</v>
+      </c>
+      <c r="AG337" s="28">
+        <v>0.27290930000000002</v>
+      </c>
+      <c r="AH337" s="28">
+        <v>-0.126577778</v>
+      </c>
+      <c r="AI337" s="28">
+        <v>0.22553509999999999</v>
+      </c>
+      <c r="AJ337" s="28">
+        <v>3.8037736000000003E-2</v>
+      </c>
+      <c r="AK337" s="28">
+        <v>0.26683950000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:37" s="4" customFormat="1" ht="66">
+      <c r="A338" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="B338" s="4">
+        <v>1</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="D338" s="7">
+        <v>43984</v>
+      </c>
+      <c r="E338" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="F338" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G338" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H338" s="4">
+        <v>10</v>
+      </c>
+      <c r="I338" s="4">
+        <v>1</v>
+      </c>
+      <c r="O338" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="P338" s="4">
+        <v>0</v>
+      </c>
+      <c r="S338" s="12">
+        <v>73</v>
+      </c>
+      <c r="T338" s="12">
+        <v>116</v>
+      </c>
+      <c r="U338" s="4">
+        <v>2019</v>
+      </c>
+      <c r="V338" s="28">
+        <v>-0.37011909999999998</v>
+      </c>
+      <c r="W338" s="28">
+        <v>0.12189099</v>
+      </c>
+      <c r="X338" s="28">
+        <v>0.50643559999999999</v>
+      </c>
+      <c r="Y338" s="28">
+        <v>0.14306478</v>
+      </c>
+      <c r="Z338" s="28">
+        <v>-0.34553329999999999</v>
+      </c>
+      <c r="AA338" s="28">
+        <v>0.14380709999999999</v>
+      </c>
+      <c r="AB338" s="28">
+        <v>0.49411319999999997</v>
+      </c>
+      <c r="AC338" s="28">
+        <v>0.15766794000000001</v>
+      </c>
+      <c r="AD338" s="28">
+        <v>5.4936170000000001E-3</v>
+      </c>
+      <c r="AE338" s="28">
+        <v>0.318577</v>
+      </c>
+      <c r="AF338" s="28">
+        <v>6.9772276999999994E-2</v>
+      </c>
+      <c r="AG338" s="28">
+        <v>0.27290930000000002</v>
+      </c>
+      <c r="AH338" s="28">
+        <v>-0.126577778</v>
+      </c>
+      <c r="AI338" s="28">
+        <v>0.22553509999999999</v>
+      </c>
+      <c r="AJ338" s="28">
+        <v>3.8037736000000003E-2</v>
+      </c>
+      <c r="AK338" s="28">
+        <v>0.26683950000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:37" s="4" customFormat="1" ht="118">
+      <c r="A339" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="B339" s="4">
+        <v>1</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="D339" s="7">
+        <v>43988</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="F339" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="G339" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="H339" s="4">
+        <v>0</v>
+      </c>
+      <c r="N339" s="4">
+        <v>1</v>
+      </c>
+      <c r="O339" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="P339" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q339" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="S339" s="12">
+        <v>73</v>
+      </c>
+      <c r="T339" s="12">
+        <v>116</v>
+      </c>
+      <c r="U339" s="4">
+        <v>2019</v>
+      </c>
+      <c r="V339" s="28">
+        <v>-0.37011909999999998</v>
+      </c>
+      <c r="W339" s="28">
+        <v>0.12189099</v>
+      </c>
+      <c r="X339" s="28">
+        <v>0.50643559999999999</v>
+      </c>
+      <c r="Y339" s="28">
+        <v>0.14306478</v>
+      </c>
+      <c r="Z339" s="28">
+        <v>-0.34553329999999999</v>
+      </c>
+      <c r="AA339" s="28">
+        <v>0.14380709999999999</v>
+      </c>
+      <c r="AB339" s="28">
+        <v>0.49411319999999997</v>
+      </c>
+      <c r="AC339" s="28">
+        <v>0.15766794000000001</v>
+      </c>
+      <c r="AD339" s="28">
+        <v>5.4936170000000001E-3</v>
+      </c>
+      <c r="AE339" s="28">
+        <v>0.318577</v>
+      </c>
+      <c r="AF339" s="28">
+        <v>6.9772276999999994E-2</v>
+      </c>
+      <c r="AG339" s="28">
+        <v>0.27290930000000002</v>
+      </c>
+      <c r="AH339" s="28">
+        <v>-0.126577778</v>
+      </c>
+      <c r="AI339" s="28">
+        <v>0.22553509999999999</v>
+      </c>
+      <c r="AJ339" s="28">
+        <v>3.8037736000000003E-2</v>
+      </c>
+      <c r="AK339" s="28">
+        <v>0.26683950000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:37" s="4" customFormat="1" ht="118">
+      <c r="A340" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="B340" s="4">
+        <v>1</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="D340" s="7">
+        <v>43994</v>
+      </c>
+      <c r="E340" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="F340" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G340" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H340" s="4">
+        <v>7</v>
+      </c>
+      <c r="N340" s="4">
+        <v>1</v>
+      </c>
+      <c r="O340" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="P340" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q340" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="S340" s="12">
+        <v>73</v>
+      </c>
+      <c r="T340" s="12">
+        <v>116</v>
+      </c>
+      <c r="U340" s="4">
+        <v>2019</v>
+      </c>
+      <c r="V340" s="28">
+        <v>-0.37011909999999998</v>
+      </c>
+      <c r="W340" s="28">
+        <v>0.12189099</v>
+      </c>
+      <c r="X340" s="28">
+        <v>0.50643559999999999</v>
+      </c>
+      <c r="Y340" s="28">
+        <v>0.14306478</v>
+      </c>
+      <c r="Z340" s="28">
+        <v>-0.34553329999999999</v>
+      </c>
+      <c r="AA340" s="28">
+        <v>0.14380709999999999</v>
+      </c>
+      <c r="AB340" s="28">
+        <v>0.49411319999999997</v>
+      </c>
+      <c r="AC340" s="28">
+        <v>0.15766794000000001</v>
+      </c>
+      <c r="AD340" s="28">
+        <v>5.4936170000000001E-3</v>
+      </c>
+      <c r="AE340" s="28">
+        <v>0.318577</v>
+      </c>
+      <c r="AF340" s="28">
+        <v>6.9772276999999994E-2</v>
+      </c>
+      <c r="AG340" s="28">
+        <v>0.27290930000000002</v>
+      </c>
+      <c r="AH340" s="28">
+        <v>-0.126577778</v>
+      </c>
+      <c r="AI340" s="28">
+        <v>0.22553509999999999</v>
+      </c>
+      <c r="AJ340" s="28">
+        <v>3.8037736000000003E-2</v>
+      </c>
+      <c r="AK340" s="28">
+        <v>0.26683950000000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:37" s="4" customFormat="1" ht="66">
+      <c r="A341" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B341" s="4">
+        <v>1</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="D341" s="7">
+        <v>43994</v>
+      </c>
+      <c r="E341" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F341" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G341" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="H341" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="N341" s="4">
+        <v>1</v>
+      </c>
+      <c r="O341" s="31" t="s">
+        <v>741</v>
+      </c>
+      <c r="P341" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q341" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="S341" s="12">
+        <v>73</v>
+      </c>
+      <c r="T341" s="12">
+        <v>116</v>
+      </c>
+      <c r="U341" s="4">
+        <v>2019</v>
+      </c>
+      <c r="V341" s="28">
+        <v>-0.37011909999999998</v>
+      </c>
+      <c r="W341" s="28">
+        <v>0.12189099</v>
+      </c>
+      <c r="X341" s="28">
+        <v>0.50643559999999999</v>
+      </c>
+      <c r="Y341" s="28">
+        <v>0.14306478</v>
+      </c>
+      <c r="Z341" s="28">
+        <v>-0.34553329999999999</v>
+      </c>
+      <c r="AA341" s="28">
+        <v>0.14380709999999999</v>
+      </c>
+      <c r="AB341" s="28">
+        <v>0.49411319999999997</v>
+      </c>
+      <c r="AC341" s="28">
+        <v>0.15766794000000001</v>
+      </c>
+      <c r="AD341" s="28">
+        <v>5.4936170000000001E-3</v>
+      </c>
+      <c r="AE341" s="28">
+        <v>0.318577</v>
+      </c>
+      <c r="AF341" s="28">
+        <v>6.9772276999999994E-2</v>
+      </c>
+      <c r="AG341" s="28">
+        <v>0.27290930000000002</v>
+      </c>
+      <c r="AH341" s="28">
+        <v>-0.126577778</v>
+      </c>
+      <c r="AI341" s="28">
+        <v>0.22553509999999999</v>
+      </c>
+      <c r="AJ341" s="28">
+        <v>3.8037736000000003E-2</v>
+      </c>
+      <c r="AK341" s="28">
+        <v>0.26683950000000001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:37" s="4" customFormat="1" ht="66">
+      <c r="A342" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="B342" s="4">
+        <v>1</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="D342" s="7">
+        <v>44001</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="F342" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G342" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H342" s="4">
+        <v>7</v>
+      </c>
+      <c r="L342" s="4">
+        <v>1</v>
+      </c>
+      <c r="O342" s="31" t="s">
+        <v>747</v>
+      </c>
+      <c r="P342" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q342" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="S342" s="12">
+        <v>73</v>
+      </c>
+      <c r="T342" s="12">
+        <v>116</v>
+      </c>
+      <c r="U342" s="4">
+        <v>2019</v>
+      </c>
+      <c r="V342" s="28">
+        <v>-0.37011909999999998</v>
+      </c>
+      <c r="W342" s="28">
+        <v>0.12189099</v>
+      </c>
+      <c r="X342" s="28">
+        <v>0.50643559999999999</v>
+      </c>
+      <c r="Y342" s="28">
+        <v>0.14306478</v>
+      </c>
+      <c r="Z342" s="28">
+        <v>-0.34553329999999999</v>
+      </c>
+      <c r="AA342" s="28">
+        <v>0.14380709999999999</v>
+      </c>
+      <c r="AB342" s="28">
+        <v>0.49411319999999997</v>
+      </c>
+      <c r="AC342" s="28">
+        <v>0.15766794000000001</v>
+      </c>
+      <c r="AD342" s="28">
+        <v>5.4936170000000001E-3</v>
+      </c>
+      <c r="AE342" s="28">
+        <v>0.318577</v>
+      </c>
+      <c r="AF342" s="28">
+        <v>6.9772276999999994E-2</v>
+      </c>
+      <c r="AG342" s="28">
+        <v>0.27290930000000002</v>
+      </c>
+      <c r="AH342" s="28">
+        <v>-0.126577778</v>
+      </c>
+      <c r="AI342" s="28">
+        <v>0.22553509999999999</v>
+      </c>
+      <c r="AJ342" s="28">
+        <v>3.8037736000000003E-2</v>
+      </c>
+      <c r="AK342" s="28">
+        <v>0.26683950000000001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:37" s="4" customFormat="1" ht="53">
+      <c r="A343" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B343" s="4">
+        <v>1</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D343" s="7">
+        <v>44039</v>
+      </c>
+      <c r="E343" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F343" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G343" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="H343" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="J343" s="4">
+        <v>1</v>
+      </c>
+      <c r="O343" s="31" t="s">
+        <v>758</v>
+      </c>
+      <c r="S343" s="12">
+        <v>73</v>
+      </c>
+      <c r="T343" s="12">
+        <v>116</v>
+      </c>
+      <c r="U343" s="4">
+        <v>2019</v>
+      </c>
+      <c r="V343" s="28">
+        <v>-0.37011909999999998</v>
+      </c>
+      <c r="W343" s="28">
+        <v>0.12189099</v>
+      </c>
+      <c r="X343" s="28">
+        <v>0.50643559999999999</v>
+      </c>
+      <c r="Y343" s="28">
+        <v>0.14306478</v>
+      </c>
+      <c r="Z343" s="28">
+        <v>-0.34553329999999999</v>
+      </c>
+      <c r="AA343" s="28">
+        <v>0.14380709999999999</v>
+      </c>
+      <c r="AB343" s="28">
+        <v>0.49411319999999997</v>
+      </c>
+      <c r="AC343" s="28">
+        <v>0.15766794000000001</v>
+      </c>
+      <c r="AD343" s="28">
+        <v>5.4936170000000001E-3</v>
+      </c>
+      <c r="AE343" s="28">
+        <v>0.318577</v>
+      </c>
+      <c r="AF343" s="28">
+        <v>6.9772276999999994E-2</v>
+      </c>
+      <c r="AG343" s="28">
+        <v>0.27290930000000002</v>
+      </c>
+      <c r="AH343" s="28">
+        <v>-0.126577778</v>
+      </c>
+      <c r="AI343" s="28">
+        <v>0.22553509999999999</v>
+      </c>
+      <c r="AJ343" s="28">
+        <v>3.8037736000000003E-2</v>
+      </c>
+      <c r="AK343" s="28">
+        <v>0.26683950000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:37" s="4" customFormat="1" ht="141">
+      <c r="A344" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B344" s="4">
+        <v>1</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="D344" s="7">
+        <v>44044</v>
+      </c>
+      <c r="E344" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="F344" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G344" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H344" s="4">
+        <v>5</v>
+      </c>
+      <c r="N344" s="4">
+        <v>1</v>
+      </c>
+      <c r="O344" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="P344" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q344" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="S344" s="12">
+        <v>73</v>
+      </c>
+      <c r="T344" s="12">
+        <v>116</v>
+      </c>
+      <c r="U344" s="4">
+        <v>2019</v>
+      </c>
+      <c r="V344" s="28">
+        <v>-0.37011909999999998</v>
+      </c>
+      <c r="W344" s="28">
+        <v>0.12189099</v>
+      </c>
+      <c r="X344" s="28">
+        <v>0.50643559999999999</v>
+      </c>
+      <c r="Y344" s="28">
+        <v>0.14306478</v>
+      </c>
+      <c r="Z344" s="28">
+        <v>-0.34553329999999999</v>
+      </c>
+      <c r="AA344" s="28">
+        <v>0.14380709999999999</v>
+      </c>
+      <c r="AB344" s="28">
+        <v>0.49411319999999997</v>
+      </c>
+      <c r="AC344" s="28">
+        <v>0.15766794000000001</v>
+      </c>
+      <c r="AD344" s="28">
+        <v>5.4936170000000001E-3</v>
+      </c>
+      <c r="AE344" s="28">
+        <v>0.318577</v>
+      </c>
+      <c r="AF344" s="28">
+        <v>6.9772276999999994E-2</v>
+      </c>
+      <c r="AG344" s="28">
+        <v>0.27290930000000002</v>
+      </c>
+      <c r="AH344" s="28">
+        <v>-0.126577778</v>
+      </c>
+      <c r="AI344" s="28">
+        <v>0.22553509999999999</v>
+      </c>
+      <c r="AJ344" s="28">
+        <v>3.8037736000000003E-2</v>
+      </c>
+      <c r="AK344" s="28">
+        <v>0.26683950000000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:37" s="4" customFormat="1">
+      <c r="A345" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B345" s="4">
+        <v>1</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D345" s="7">
+        <v>44059</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="F345" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G345" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H345" s="4">
+        <v>10</v>
+      </c>
+      <c r="N345" s="4">
+        <v>1</v>
+      </c>
+      <c r="O345" s="18" t="s">
+        <v>752</v>
+      </c>
+      <c r="P345" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q345" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="S345" s="12">
+        <v>73</v>
+      </c>
+      <c r="T345" s="12">
+        <v>116</v>
+      </c>
+      <c r="U345" s="12">
+        <v>2019</v>
+      </c>
+      <c r="V345" s="28">
+        <v>-0.37011909999999998</v>
+      </c>
+      <c r="W345" s="28">
+        <v>0.12189099</v>
+      </c>
+      <c r="X345" s="28">
+        <v>0.50643559999999999</v>
+      </c>
+      <c r="Y345" s="28">
+        <v>0.14306478</v>
+      </c>
+      <c r="Z345" s="28">
+        <v>-0.34553329999999999</v>
+      </c>
+      <c r="AA345" s="28">
+        <v>0.14380709999999999</v>
+      </c>
+      <c r="AB345" s="28">
+        <v>0.49411319999999997</v>
+      </c>
+      <c r="AC345" s="28">
+        <v>0.15766794000000001</v>
+      </c>
+      <c r="AD345" s="28">
+        <v>5.4936170000000001E-3</v>
+      </c>
+      <c r="AE345" s="28">
+        <v>0.318577</v>
+      </c>
+      <c r="AF345" s="28">
+        <v>6.9772276999999994E-2</v>
+      </c>
+      <c r="AG345" s="28">
+        <v>0.27290930000000002</v>
+      </c>
+      <c r="AH345" s="28">
+        <v>-0.126577778</v>
+      </c>
+      <c r="AI345" s="28">
+        <v>0.22553509999999999</v>
+      </c>
+      <c r="AJ345" s="28">
+        <v>3.8037736000000003E-2</v>
+      </c>
+      <c r="AK345" s="28">
+        <v>0.26683950000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:37" s="4" customFormat="1">
       <c r="D346" s="7"/>
       <c r="O346" s="18"/>
       <c r="AB346"/>
@@ -33858,7 +34842,7 @@
       <c r="AI346"/>
       <c r="AJ346"/>
     </row>
-    <row r="347" spans="4:36" s="4" customFormat="1">
+    <row r="347" spans="1:37" s="4" customFormat="1">
       <c r="D347" s="7"/>
       <c r="O347" s="18"/>
       <c r="AB347"/>
@@ -33871,7 +34855,7 @@
       <c r="AI347"/>
       <c r="AJ347"/>
     </row>
-    <row r="348" spans="4:36" s="4" customFormat="1">
+    <row r="348" spans="1:37" s="4" customFormat="1">
       <c r="D348" s="7"/>
       <c r="O348" s="18"/>
       <c r="AB348"/>
@@ -33884,7 +34868,7 @@
       <c r="AI348"/>
       <c r="AJ348"/>
     </row>
-    <row r="349" spans="4:36" s="4" customFormat="1">
+    <row r="349" spans="1:37" s="4" customFormat="1">
       <c r="D349" s="7"/>
       <c r="O349" s="18"/>
       <c r="AB349"/>
@@ -33897,7 +34881,7 @@
       <c r="AI349"/>
       <c r="AJ349"/>
     </row>
-    <row r="350" spans="4:36" s="4" customFormat="1">
+    <row r="350" spans="1:37" s="4" customFormat="1">
       <c r="D350" s="7"/>
       <c r="O350" s="18"/>
       <c r="AB350"/>
@@ -33910,9 +34894,22 @@
       <c r="AI350"/>
       <c r="AJ350"/>
     </row>
+    <row r="351" spans="1:37" s="4" customFormat="1">
+      <c r="D351" s="7"/>
+      <c r="O351" s="18"/>
+      <c r="AB351"/>
+      <c r="AC351"/>
+      <c r="AD351"/>
+      <c r="AE351"/>
+      <c r="AF351"/>
+      <c r="AG351"/>
+      <c r="AH351"/>
+      <c r="AI351"/>
+      <c r="AJ351"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N325" xr:uid="{4AF28D47-536F-424F-972A-61BA013A2302}"/>
-  <sortState ref="A2:R343">
+  <sortState ref="A2:R344">
     <sortCondition ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
